--- a/test/yx.xlsx
+++ b/test/yx.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="604">
   <si>
     <t/>
   </si>
@@ -139,10 +139,13 @@
     <t>station1_YX_13</t>
   </si>
   <si>
+    <t>备用1</t>
+  </si>
+  <si>
+    <t>station1_YX_14</t>
+  </si>
+  <si>
     <t>备用</t>
-  </si>
-  <si>
-    <t>station1_YX_14</t>
   </si>
   <si>
     <t>station1_YX_15</t>
@@ -2204,7 +2207,8 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="6.3" customWidth="1"/>
-    <col min="2" max="13" width="15.8" customWidth="1"/>
+    <col min="2" max="10" width="10.8" customWidth="1"/>
+    <col min="11" max="13" width="10.9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -2830,10 +2834,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2871,10 +2875,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2912,10 +2916,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -2953,10 +2957,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -2994,10 +2998,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -3035,10 +3039,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -3076,10 +3080,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -3117,10 +3121,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -3158,10 +3162,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -3199,10 +3203,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -3240,10 +3244,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -3281,10 +3285,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -3322,10 +3326,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -3363,10 +3367,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -3404,10 +3408,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -3445,10 +3449,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -3486,10 +3490,10 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -3527,10 +3531,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -3568,10 +3572,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -3609,10 +3613,10 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -3650,10 +3654,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -3691,10 +3695,10 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -3732,10 +3736,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -3773,10 +3777,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -3814,10 +3818,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -3855,10 +3859,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -3896,10 +3900,10 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -3937,10 +3941,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -3978,10 +3982,10 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -4019,10 +4023,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -4060,10 +4064,10 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -4101,10 +4105,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -4142,10 +4146,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -4183,10 +4187,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -4224,10 +4228,10 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -4265,10 +4269,10 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -4306,10 +4310,10 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -4347,10 +4351,10 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -4388,10 +4392,10 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -4429,10 +4433,10 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -4470,10 +4474,10 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -4511,10 +4515,10 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -4552,10 +4556,10 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -4593,10 +4597,10 @@
         <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -4634,10 +4638,10 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -4675,10 +4679,10 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -4716,10 +4720,10 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -4757,10 +4761,10 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -4798,10 +4802,10 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -4839,10 +4843,10 @@
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -4880,10 +4884,10 @@
         <v>65</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -4921,10 +4925,10 @@
         <v>66</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -4962,10 +4966,10 @@
         <v>67</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -5003,10 +5007,10 @@
         <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -5044,10 +5048,10 @@
         <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -5085,10 +5089,10 @@
         <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
@@ -5126,10 +5130,10 @@
         <v>71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -5167,10 +5171,10 @@
         <v>72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
@@ -5208,10 +5212,10 @@
         <v>73</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -5249,10 +5253,10 @@
         <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
@@ -5290,10 +5294,10 @@
         <v>75</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -5331,10 +5335,10 @@
         <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -5372,10 +5376,10 @@
         <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -5413,10 +5417,10 @@
         <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -5454,10 +5458,10 @@
         <v>79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
@@ -5495,10 +5499,10 @@
         <v>80</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E81" s="1">
         <v>1</v>
@@ -5536,10 +5540,10 @@
         <v>81</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
@@ -5577,10 +5581,10 @@
         <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
@@ -5618,10 +5622,10 @@
         <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -5659,10 +5663,10 @@
         <v>84</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
@@ -5700,10 +5704,10 @@
         <v>85</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
@@ -5741,10 +5745,10 @@
         <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -5782,10 +5786,10 @@
         <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -5823,10 +5827,10 @@
         <v>88</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -5864,10 +5868,10 @@
         <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
@@ -5905,10 +5909,10 @@
         <v>90</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
@@ -5946,10 +5950,10 @@
         <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -5987,10 +5991,10 @@
         <v>92</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -6028,10 +6032,10 @@
         <v>93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -6069,10 +6073,10 @@
         <v>94</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
@@ -6110,10 +6114,10 @@
         <v>95</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
@@ -6151,10 +6155,10 @@
         <v>96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
@@ -6192,10 +6196,10 @@
         <v>97</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
@@ -6233,10 +6237,10 @@
         <v>98</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
@@ -6274,10 +6278,10 @@
         <v>99</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -6315,10 +6319,10 @@
         <v>100</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
@@ -6356,10 +6360,10 @@
         <v>101</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
@@ -6397,10 +6401,10 @@
         <v>102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
@@ -6438,10 +6442,10 @@
         <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -6479,10 +6483,10 @@
         <v>104</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -6520,10 +6524,10 @@
         <v>105</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -6561,10 +6565,10 @@
         <v>106</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -6602,10 +6606,10 @@
         <v>107</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -6643,10 +6647,10 @@
         <v>108</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E109" s="1">
         <v>1</v>
@@ -6684,10 +6688,10 @@
         <v>109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E110" s="1">
         <v>1</v>
@@ -6725,10 +6729,10 @@
         <v>110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
@@ -6766,10 +6770,10 @@
         <v>111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
@@ -6807,10 +6811,10 @@
         <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -6848,10 +6852,10 @@
         <v>113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E114" s="1">
         <v>1</v>
@@ -6889,10 +6893,10 @@
         <v>114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
@@ -6930,10 +6934,10 @@
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
@@ -6971,10 +6975,10 @@
         <v>116</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
@@ -7012,10 +7016,10 @@
         <v>117</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
@@ -7053,10 +7057,10 @@
         <v>118</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E119" s="1">
         <v>1</v>
@@ -7094,10 +7098,10 @@
         <v>119</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E120" s="1">
         <v>1</v>
@@ -7135,10 +7139,10 @@
         <v>120</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E121" s="1">
         <v>1</v>
@@ -7176,10 +7180,10 @@
         <v>121</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E122" s="1">
         <v>1</v>
@@ -7217,10 +7221,10 @@
         <v>122</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E123" s="1">
         <v>1</v>
@@ -7258,10 +7262,10 @@
         <v>123</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -7299,10 +7303,10 @@
         <v>124</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E125" s="1">
         <v>1</v>
@@ -7340,10 +7344,10 @@
         <v>125</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E126" s="1">
         <v>1</v>
@@ -7381,10 +7385,10 @@
         <v>126</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E127" s="1">
         <v>1</v>
@@ -7422,10 +7426,10 @@
         <v>127</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E128" s="1">
         <v>1</v>
@@ -7463,10 +7467,10 @@
         <v>128</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E129" s="1">
         <v>1</v>
@@ -7504,10 +7508,10 @@
         <v>129</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E130" s="1">
         <v>1</v>
@@ -7545,10 +7549,10 @@
         <v>130</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E131" s="1">
         <v>1</v>
@@ -7586,10 +7590,10 @@
         <v>131</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E132" s="1">
         <v>1</v>
@@ -7627,10 +7631,10 @@
         <v>132</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E133" s="1">
         <v>1</v>
@@ -7668,10 +7672,10 @@
         <v>133</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
@@ -7709,10 +7713,10 @@
         <v>134</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E135" s="1">
         <v>1</v>
@@ -7750,10 +7754,10 @@
         <v>135</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E136" s="1">
         <v>1</v>
@@ -7791,10 +7795,10 @@
         <v>136</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E137" s="1">
         <v>1</v>
@@ -7832,10 +7836,10 @@
         <v>137</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E138" s="1">
         <v>1</v>
@@ -7873,10 +7877,10 @@
         <v>138</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
@@ -7914,10 +7918,10 @@
         <v>139</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E140" s="1">
         <v>1</v>
@@ -7955,10 +7959,10 @@
         <v>140</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E141" s="1">
         <v>1</v>
@@ -7996,10 +8000,10 @@
         <v>141</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E142" s="1">
         <v>1</v>
@@ -8037,10 +8041,10 @@
         <v>142</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E143" s="1">
         <v>1</v>
@@ -8078,10 +8082,10 @@
         <v>143</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E144" s="1">
         <v>1</v>
@@ -8119,10 +8123,10 @@
         <v>144</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E145" s="1">
         <v>1</v>
@@ -8160,10 +8164,10 @@
         <v>145</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E146" s="1">
         <v>1</v>
@@ -8201,10 +8205,10 @@
         <v>146</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E147" s="1">
         <v>1</v>
@@ -8242,10 +8246,10 @@
         <v>147</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E148" s="1">
         <v>1</v>
@@ -8283,10 +8287,10 @@
         <v>148</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E149" s="1">
         <v>1</v>
@@ -8324,10 +8328,10 @@
         <v>149</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
@@ -8365,10 +8369,10 @@
         <v>150</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E151" s="1">
         <v>1</v>
@@ -8406,10 +8410,10 @@
         <v>151</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E152" s="1">
         <v>1</v>
@@ -8447,10 +8451,10 @@
         <v>152</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E153" s="1">
         <v>1</v>
@@ -8488,10 +8492,10 @@
         <v>153</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E154" s="1">
         <v>1</v>
@@ -8529,10 +8533,10 @@
         <v>154</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E155" s="1">
         <v>1</v>
@@ -8570,10 +8574,10 @@
         <v>155</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E156" s="1">
         <v>1</v>
@@ -8611,10 +8615,10 @@
         <v>156</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E157" s="1">
         <v>1</v>
@@ -8652,10 +8656,10 @@
         <v>157</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E158" s="1">
         <v>1</v>
@@ -8693,10 +8697,10 @@
         <v>158</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E159" s="1">
         <v>1</v>
@@ -8734,10 +8738,10 @@
         <v>159</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E160" s="1">
         <v>1</v>
@@ -8775,10 +8779,10 @@
         <v>160</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E161" s="1">
         <v>1</v>
@@ -8816,10 +8820,10 @@
         <v>161</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E162" s="1">
         <v>1</v>
@@ -8857,10 +8861,10 @@
         <v>162</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E163" s="1">
         <v>1</v>
@@ -8898,10 +8902,10 @@
         <v>163</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E164" s="1">
         <v>1</v>
@@ -8939,10 +8943,10 @@
         <v>164</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E165" s="1">
         <v>1</v>
@@ -8980,10 +8984,10 @@
         <v>165</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E166" s="1">
         <v>1</v>
@@ -9021,10 +9025,10 @@
         <v>166</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E167" s="1">
         <v>1</v>
@@ -9062,10 +9066,10 @@
         <v>167</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E168" s="1">
         <v>1</v>
@@ -9103,10 +9107,10 @@
         <v>168</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E169" s="1">
         <v>1</v>
@@ -9144,10 +9148,10 @@
         <v>169</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E170" s="1">
         <v>1</v>
@@ -9185,10 +9189,10 @@
         <v>170</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E171" s="1">
         <v>1</v>
@@ -9226,10 +9230,10 @@
         <v>171</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E172" s="1">
         <v>1</v>
@@ -9267,10 +9271,10 @@
         <v>172</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E173" s="1">
         <v>1</v>
@@ -9308,10 +9312,10 @@
         <v>173</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E174" s="1">
         <v>1</v>
@@ -9349,10 +9353,10 @@
         <v>174</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E175" s="1">
         <v>1</v>
@@ -9390,10 +9394,10 @@
         <v>175</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E176" s="1">
         <v>1</v>
@@ -9431,10 +9435,10 @@
         <v>176</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E177" s="1">
         <v>1</v>
@@ -9472,10 +9476,10 @@
         <v>177</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E178" s="1">
         <v>1</v>
@@ -9513,10 +9517,10 @@
         <v>178</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E179" s="1">
         <v>1</v>
@@ -9554,10 +9558,10 @@
         <v>179</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E180" s="1">
         <v>1</v>
@@ -9595,10 +9599,10 @@
         <v>180</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E181" s="1">
         <v>1</v>
@@ -9636,10 +9640,10 @@
         <v>181</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E182" s="1">
         <v>1</v>
@@ -9677,10 +9681,10 @@
         <v>182</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E183" s="1">
         <v>1</v>
@@ -9718,10 +9722,10 @@
         <v>183</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E184" s="1">
         <v>1</v>
@@ -9759,10 +9763,10 @@
         <v>184</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E185" s="1">
         <v>1</v>
@@ -9800,10 +9804,10 @@
         <v>185</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E186" s="1">
         <v>1</v>
@@ -9841,10 +9845,10 @@
         <v>186</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E187" s="1">
         <v>1</v>
@@ -9882,10 +9886,10 @@
         <v>187</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E188" s="1">
         <v>1</v>
@@ -9923,10 +9927,10 @@
         <v>188</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E189" s="1">
         <v>1</v>
@@ -9964,10 +9968,10 @@
         <v>189</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E190" s="1">
         <v>1</v>
@@ -10005,10 +10009,10 @@
         <v>190</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E191" s="1">
         <v>1</v>
@@ -10046,10 +10050,10 @@
         <v>191</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E192" s="1">
         <v>1</v>
@@ -10087,10 +10091,10 @@
         <v>192</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E193" s="1">
         <v>1</v>
@@ -10128,10 +10132,10 @@
         <v>193</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E194" s="1">
         <v>1</v>
@@ -10169,10 +10173,10 @@
         <v>194</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E195" s="1">
         <v>1</v>
@@ -10210,10 +10214,10 @@
         <v>195</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E196" s="1">
         <v>1</v>
@@ -10251,10 +10255,10 @@
         <v>196</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E197" s="1">
         <v>1</v>
@@ -10292,10 +10296,10 @@
         <v>197</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E198" s="1">
         <v>1</v>
@@ -10333,10 +10337,10 @@
         <v>198</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E199" s="1">
         <v>1</v>
@@ -10374,10 +10378,10 @@
         <v>199</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E200" s="1">
         <v>1</v>
@@ -10415,10 +10419,10 @@
         <v>200</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E201" s="1">
         <v>1</v>
@@ -10456,10 +10460,10 @@
         <v>201</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E202" s="1">
         <v>1</v>
@@ -10497,10 +10501,10 @@
         <v>202</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E203" s="1">
         <v>1</v>
@@ -10538,10 +10542,10 @@
         <v>203</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E204" s="1">
         <v>1</v>
@@ -10579,10 +10583,10 @@
         <v>204</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E205" s="1">
         <v>1</v>
@@ -10620,10 +10624,10 @@
         <v>205</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E206" s="1">
         <v>1</v>
@@ -10661,10 +10665,10 @@
         <v>206</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E207" s="1">
         <v>1</v>
@@ -10702,10 +10706,10 @@
         <v>207</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E208" s="1">
         <v>1</v>
@@ -10743,10 +10747,10 @@
         <v>208</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E209" s="1">
         <v>1</v>
@@ -10784,10 +10788,10 @@
         <v>209</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E210" s="1">
         <v>1</v>
@@ -10825,10 +10829,10 @@
         <v>210</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E211" s="1">
         <v>1</v>
@@ -10866,10 +10870,10 @@
         <v>211</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E212" s="1">
         <v>1</v>
@@ -10907,10 +10911,10 @@
         <v>212</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E213" s="1">
         <v>1</v>
@@ -10948,10 +10952,10 @@
         <v>213</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E214" s="1">
         <v>1</v>
@@ -10989,10 +10993,10 @@
         <v>214</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E215" s="1">
         <v>1</v>
@@ -11030,10 +11034,10 @@
         <v>215</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E216" s="1">
         <v>1</v>
@@ -11071,10 +11075,10 @@
         <v>216</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E217" s="1">
         <v>1</v>
@@ -11112,10 +11116,10 @@
         <v>217</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E218" s="1">
         <v>1</v>
@@ -11153,10 +11157,10 @@
         <v>218</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E219" s="1">
         <v>1</v>
@@ -11194,10 +11198,10 @@
         <v>219</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E220" s="1">
         <v>1</v>
@@ -11235,10 +11239,10 @@
         <v>220</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E221" s="1">
         <v>1</v>
@@ -11276,10 +11280,10 @@
         <v>221</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E222" s="1">
         <v>1</v>
@@ -11317,10 +11321,10 @@
         <v>222</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E223" s="1">
         <v>1</v>
@@ -11358,10 +11362,10 @@
         <v>223</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E224" s="1">
         <v>1</v>
@@ -11399,10 +11403,10 @@
         <v>224</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E225" s="1">
         <v>1</v>
@@ -11440,10 +11444,10 @@
         <v>225</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E226" s="1">
         <v>1</v>
@@ -11481,10 +11485,10 @@
         <v>226</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E227" s="1">
         <v>1</v>
@@ -11522,10 +11526,10 @@
         <v>227</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E228" s="1">
         <v>1</v>
@@ -11563,10 +11567,10 @@
         <v>228</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E229" s="1">
         <v>1</v>
@@ -11604,10 +11608,10 @@
         <v>229</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E230" s="1">
         <v>1</v>
@@ -11645,10 +11649,10 @@
         <v>230</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E231" s="1">
         <v>1</v>
@@ -11686,10 +11690,10 @@
         <v>231</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E232" s="1">
         <v>1</v>
@@ -11727,10 +11731,10 @@
         <v>232</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E233" s="1">
         <v>1</v>
@@ -11768,10 +11772,10 @@
         <v>233</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E234" s="1">
         <v>1</v>
@@ -11809,10 +11813,10 @@
         <v>234</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E235" s="1">
         <v>1</v>
@@ -11850,10 +11854,10 @@
         <v>235</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E236" s="1">
         <v>1</v>
@@ -11891,10 +11895,10 @@
         <v>236</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E237" s="1">
         <v>1</v>
@@ -11932,10 +11936,10 @@
         <v>237</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E238" s="1">
         <v>1</v>
@@ -11973,10 +11977,10 @@
         <v>238</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E239" s="1">
         <v>1</v>
@@ -12014,10 +12018,10 @@
         <v>239</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E240" s="1">
         <v>1</v>
@@ -12055,10 +12059,10 @@
         <v>240</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E241" s="1">
         <v>1</v>
@@ -12096,10 +12100,10 @@
         <v>241</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E242" s="1">
         <v>1</v>
@@ -12137,10 +12141,10 @@
         <v>242</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E243" s="1">
         <v>1</v>
@@ -12178,10 +12182,10 @@
         <v>243</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E244" s="1">
         <v>1</v>
@@ -12219,10 +12223,10 @@
         <v>244</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E245" s="1">
         <v>1</v>
@@ -12260,10 +12264,10 @@
         <v>245</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E246" s="1">
         <v>1</v>
@@ -12301,10 +12305,10 @@
         <v>246</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E247" s="1">
         <v>1</v>
@@ -12342,10 +12346,10 @@
         <v>247</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E248" s="1">
         <v>1</v>
@@ -12383,10 +12387,10 @@
         <v>248</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E249" s="1">
         <v>1</v>
@@ -12424,10 +12428,10 @@
         <v>249</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E250" s="1">
         <v>1</v>
@@ -12465,10 +12469,10 @@
         <v>250</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E251" s="1">
         <v>1</v>
@@ -12506,10 +12510,10 @@
         <v>251</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E252" s="1">
         <v>1</v>
@@ -12547,10 +12551,10 @@
         <v>252</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E253" s="1">
         <v>1</v>
@@ -12588,10 +12592,10 @@
         <v>253</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E254" s="1">
         <v>1</v>
@@ -12629,10 +12633,10 @@
         <v>254</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E255" s="1">
         <v>1</v>
@@ -12670,10 +12674,10 @@
         <v>255</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E256" s="1">
         <v>1</v>
@@ -12711,10 +12715,10 @@
         <v>256</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E257" s="1">
         <v>1</v>
@@ -12752,10 +12756,10 @@
         <v>257</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E258" s="1">
         <v>1</v>
@@ -12793,10 +12797,10 @@
         <v>258</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E259" s="1">
         <v>1</v>
@@ -12834,10 +12838,10 @@
         <v>259</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E260" s="1">
         <v>1</v>
@@ -12875,10 +12879,10 @@
         <v>260</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E261" s="1">
         <v>1</v>
@@ -12916,10 +12920,10 @@
         <v>261</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E262" s="1">
         <v>1</v>
@@ -12957,10 +12961,10 @@
         <v>262</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E263" s="1">
         <v>1</v>
@@ -12998,10 +13002,10 @@
         <v>263</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E264" s="1">
         <v>1</v>
@@ -13039,10 +13043,10 @@
         <v>264</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E265" s="1">
         <v>1</v>
@@ -13080,10 +13084,10 @@
         <v>265</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E266" s="1">
         <v>1</v>
@@ -13121,10 +13125,10 @@
         <v>266</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E267" s="1">
         <v>1</v>
@@ -13162,10 +13166,10 @@
         <v>267</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E268" s="1">
         <v>1</v>
@@ -13203,10 +13207,10 @@
         <v>268</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E269" s="1">
         <v>1</v>
@@ -13244,10 +13248,10 @@
         <v>269</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E270" s="1">
         <v>1</v>
@@ -13285,10 +13289,10 @@
         <v>270</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E271" s="1">
         <v>1</v>
@@ -13326,10 +13330,10 @@
         <v>271</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E272" s="1">
         <v>1</v>
@@ -13367,10 +13371,10 @@
         <v>272</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E273" s="1">
         <v>1</v>
@@ -13408,10 +13412,10 @@
         <v>273</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E274" s="1">
         <v>1</v>
@@ -13449,10 +13453,10 @@
         <v>274</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E275" s="1">
         <v>1</v>
@@ -13490,10 +13494,10 @@
         <v>275</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E276" s="1">
         <v>1</v>
@@ -13531,10 +13535,10 @@
         <v>276</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E277" s="1">
         <v>1</v>
@@ -13572,10 +13576,10 @@
         <v>277</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E278" s="1">
         <v>1</v>
@@ -13613,10 +13617,10 @@
         <v>278</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E279" s="1">
         <v>1</v>
@@ -13654,10 +13658,10 @@
         <v>279</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E280" s="1">
         <v>1</v>
@@ -13695,10 +13699,10 @@
         <v>280</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E281" s="1">
         <v>1</v>
@@ -13736,10 +13740,10 @@
         <v>281</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E282" s="1">
         <v>1</v>
@@ -13777,10 +13781,10 @@
         <v>282</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E283" s="1">
         <v>1</v>
@@ -13818,10 +13822,10 @@
         <v>283</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E284" s="1">
         <v>1</v>
@@ -13859,10 +13863,10 @@
         <v>284</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E285" s="1">
         <v>1</v>
@@ -13900,10 +13904,10 @@
         <v>285</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E286" s="1">
         <v>1</v>
@@ -13941,10 +13945,10 @@
         <v>286</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E287" s="1">
         <v>1</v>
@@ -13982,10 +13986,10 @@
         <v>287</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E288" s="1">
         <v>1</v>
@@ -14023,10 +14027,10 @@
         <v>288</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E289" s="1">
         <v>1</v>
@@ -14064,10 +14068,10 @@
         <v>289</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E290" s="1">
         <v>1</v>
@@ -14105,10 +14109,10 @@
         <v>290</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E291" s="1">
         <v>1</v>
@@ -14146,10 +14150,10 @@
         <v>291</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E292" s="1">
         <v>1</v>
@@ -14187,10 +14191,10 @@
         <v>292</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E293" s="1">
         <v>1</v>
@@ -14228,10 +14232,10 @@
         <v>293</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E294" s="1">
         <v>1</v>
@@ -14269,10 +14273,10 @@
         <v>294</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E295" s="1">
         <v>1</v>
@@ -14310,10 +14314,10 @@
         <v>295</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E296" s="1">
         <v>1</v>
@@ -14351,10 +14355,10 @@
         <v>296</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E297" s="1">
         <v>1</v>
@@ -14392,10 +14396,10 @@
         <v>297</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E298" s="1">
         <v>1</v>
@@ -14433,10 +14437,10 @@
         <v>298</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E299" s="1">
         <v>1</v>
@@ -14474,10 +14478,10 @@
         <v>299</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E300" s="1">
         <v>1</v>
@@ -14515,10 +14519,10 @@
         <v>300</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E301" s="1">
         <v>1</v>
@@ -14556,10 +14560,10 @@
         <v>301</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E302" s="1">
         <v>1</v>
@@ -14597,10 +14601,10 @@
         <v>302</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E303" s="1">
         <v>1</v>
@@ -14638,10 +14642,10 @@
         <v>303</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E304" s="1">
         <v>1</v>
@@ -14679,10 +14683,10 @@
         <v>304</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E305" s="1">
         <v>1</v>
@@ -14720,10 +14724,10 @@
         <v>305</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E306" s="1">
         <v>1</v>
@@ -14761,10 +14765,10 @@
         <v>306</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E307" s="1">
         <v>1</v>
@@ -14802,10 +14806,10 @@
         <v>307</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E308" s="1">
         <v>1</v>
@@ -14843,10 +14847,10 @@
         <v>308</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E309" s="1">
         <v>1</v>
@@ -14884,10 +14888,10 @@
         <v>309</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E310" s="1">
         <v>1</v>
@@ -14925,10 +14929,10 @@
         <v>310</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E311" s="1">
         <v>1</v>
@@ -14966,10 +14970,10 @@
         <v>311</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E312" s="1">
         <v>1</v>
@@ -15007,10 +15011,10 @@
         <v>312</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E313" s="1">
         <v>1</v>
@@ -15048,10 +15052,10 @@
         <v>313</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E314" s="1">
         <v>1</v>
@@ -15089,10 +15093,10 @@
         <v>314</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E315" s="1">
         <v>1</v>
@@ -15130,10 +15134,10 @@
         <v>315</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E316" s="1">
         <v>1</v>
@@ -15171,10 +15175,10 @@
         <v>316</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E317" s="1">
         <v>1</v>
@@ -15212,10 +15216,10 @@
         <v>317</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E318" s="1">
         <v>1</v>
@@ -15253,10 +15257,10 @@
         <v>318</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E319" s="1">
         <v>1</v>
@@ -15294,10 +15298,10 @@
         <v>319</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E320" s="1">
         <v>1</v>
@@ -15335,10 +15339,10 @@
         <v>320</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E321" s="1">
         <v>1</v>
